--- a/2_specs/domain/dd_user.xlsx
+++ b/2_specs/domain/dd_user.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360CloudUI\Cache\1333240703\studio\km.pony\2_specs\domain\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="315" windowWidth="20730" windowHeight="11640"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <definedName name="DataType">meta!$E$5:$E$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">User!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author>胡毅斌</author>
   </authors>
   <commentList>
-    <comment ref="M13" authorId="0">
+    <comment ref="M13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>Label</t>
   </si>
@@ -438,6 +443,10 @@
   </si>
   <si>
     <t>UserTypeId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployerId</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,9 +791,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -798,9 +804,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,12 +927,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -971,7 +977,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,7 +1012,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,767 +1227,773 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="24" customWidth="1"/>
     <col min="5" max="7" width="4" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5" style="18" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="27" customWidth="1"/>
-    <col min="10" max="12" width="5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="48.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="25" customWidth="1"/>
+    <col min="10" max="12" width="5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="48.5" style="5" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:13" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:13" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37">
+      <c r="A4" s="35">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="38" t="b">
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="8"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37">
+      <c r="A5" s="35">
         <f t="shared" ref="A5:A31" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <v>200</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="b">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="21" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37">
+      <c r="A6" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="31" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="38" t="b">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="43"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37">
+      <c r="A7" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="31" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="28">
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="45" t="s">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="38" t="b">
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="43"/>
-    </row>
-    <row r="9" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37">
+      <c r="I8" s="26"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="38" t="b">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="43"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37">
+      <c r="A10" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="37">
         <v>100</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="38" t="b">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="21" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37">
+      <c r="A11" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="37">
         <v>100</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="38" t="b">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="43"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37">
+      <c r="A12" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="34">
         <v>50</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="38" t="b">
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <v>200</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="38" t="b">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37">
+      <c r="A14" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="28">
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="26">
         <v>0</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="45" t="s">
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="43" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="37">
+      <c r="A15" s="35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="29" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
-    </row>
-    <row r="16" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="31" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="29" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
-    </row>
-    <row r="17" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37">
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+    </row>
+    <row r="17" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="31" t="s">
+      <c r="C17" s="40"/>
+      <c r="D17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <v>400</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="38" t="b">
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37">
+      <c r="A18" s="35">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="40"/>
+      <c r="D18" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="34">
         <v>100</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="38" t="b">
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37">
+      <c r="A19" s="35">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="31" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="38" t="b">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="37">
+      <c r="A20" s="35">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="31" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="41"/>
-    </row>
-    <row r="21" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="37">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+    </row>
+    <row r="21" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="31" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="29" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="41" t="s">
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="37">
+    <row r="22" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="37">
+    <row r="23" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="31" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="38" t="b">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38" t="b">
+      <c r="I23" s="27"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="M23" s="41"/>
-    </row>
-    <row r="24" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="37">
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+    </row>
+    <row r="24" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="40"/>
+      <c r="D24" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+    </row>
+    <row r="25" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="31" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="38" t="b">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="41"/>
-    </row>
-    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="37">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B25" s="35" t="s">
+      <c r="I25" s="27"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="31" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
-    </row>
-    <row r="26" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="37">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B26" s="35" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="31" t="s">
+      <c r="C27" s="40"/>
+      <c r="D27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="38" t="b">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-    </row>
-    <row r="27" spans="1:13" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="37">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B27" s="35" t="s">
+      <c r="I27" s="27"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="1:13" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="35">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="31" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41"/>
-    </row>
-    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B28" s="35" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="35">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="31" t="s">
+      <c r="C29" s="40"/>
+      <c r="D29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="29" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="41"/>
-    </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="37">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="41"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="37">
+      <c r="A30" s="35">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="9"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J14 K4:L31 H4:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J14 H4:H31 K4:L31">
       <formula1>"TRUE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15:J31">
